--- a/file/template1q1.xlsx
+++ b/file/template1q1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3616" uniqueCount="2108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="2108">
   <si>
     <t>Id
 序号</t>
@@ -6314,10 +6314,6 @@
   <si>
     <t>ImageCompare=compare_rear_window_heating_status</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\github\code\file\FAW_E115_FCP_CANMatrix_V1.6.dbc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bcm_wheel_heating_statusone.bmp</t>
@@ -7438,6 +7434,10 @@
   </si>
   <si>
     <t>COM24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAW_E115_FCP_CANMatrix_V1.6.dbc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24082,7 +24082,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>891</v>
@@ -24108,7 +24108,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>892</v>
@@ -24134,7 +24134,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>893</v>
@@ -24158,7 +24158,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>894</v>
@@ -24184,7 +24184,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>895</v>
@@ -24210,7 +24210,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>896</v>
@@ -24236,7 +24236,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>897</v>
@@ -24262,7 +24262,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>898</v>
@@ -24288,7 +24288,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>899</v>
@@ -24314,7 +24314,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>900</v>
@@ -24340,7 +24340,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>901</v>
@@ -24366,7 +24366,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>902</v>
@@ -24390,7 +24390,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>903</v>
@@ -24414,7 +24414,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>904</v>
@@ -24438,7 +24438,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>905</v>
@@ -24462,7 +24462,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>906</v>
@@ -24486,7 +24486,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>907</v>
@@ -24510,7 +24510,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>908</v>
@@ -24534,7 +24534,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>909</v>
@@ -24558,7 +24558,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>910</v>
@@ -24582,7 +24582,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>911</v>
@@ -24606,7 +24606,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>912</v>
@@ -24632,7 +24632,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>913</v>
@@ -24658,7 +24658,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>914</v>
@@ -24682,7 +24682,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>915</v>
@@ -24706,7 +24706,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>916</v>
@@ -24730,7 +24730,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>917</v>
@@ -24754,7 +24754,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>918</v>
@@ -24778,7 +24778,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>919</v>
@@ -24802,7 +24802,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>920</v>
@@ -24826,7 +24826,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>921</v>
@@ -24850,7 +24850,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>922</v>
@@ -24874,7 +24874,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>923</v>
@@ -24898,7 +24898,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>924</v>
@@ -24922,7 +24922,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>925</v>
@@ -24946,7 +24946,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>926</v>
@@ -24972,7 +24972,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>927</v>
@@ -24996,7 +24996,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>928</v>
@@ -25020,7 +25020,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>929</v>
@@ -25044,7 +25044,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>930</v>
@@ -25068,7 +25068,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>931</v>
@@ -25092,7 +25092,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>932</v>
@@ -25116,7 +25116,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>933</v>
@@ -25140,7 +25140,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>934</v>
@@ -25164,7 +25164,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>935</v>
@@ -25188,7 +25188,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>936</v>
@@ -25212,7 +25212,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>937</v>
@@ -25236,7 +25236,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>938</v>
@@ -25260,7 +25260,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>939</v>
@@ -25284,7 +25284,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>940</v>
@@ -25308,7 +25308,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>941</v>
@@ -25332,7 +25332,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>942</v>
@@ -25356,7 +25356,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>943</v>
@@ -25380,7 +25380,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>944</v>
@@ -25404,7 +25404,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>945</v>
@@ -25428,7 +25428,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>946</v>
@@ -25452,7 +25452,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>947</v>
@@ -25476,7 +25476,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>948</v>
@@ -25500,7 +25500,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C60" s="1">
         <v>59</v>
@@ -25526,7 +25526,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C61" s="1">
         <v>60</v>
@@ -25550,7 +25550,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C62" s="1">
         <v>61</v>
@@ -25574,7 +25574,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C63" s="1">
         <v>62</v>
@@ -25598,7 +25598,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C64" s="1">
         <v>63</v>
@@ -25622,7 +25622,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C65" s="1">
         <v>64</v>
@@ -25646,7 +25646,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C66" s="1">
         <v>65</v>
@@ -25672,7 +25672,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -25698,7 +25698,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C68" s="1">
         <v>67</v>
@@ -25724,7 +25724,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C69" s="1">
         <v>68</v>
@@ -25750,7 +25750,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C70" s="1">
         <v>69</v>
@@ -25774,7 +25774,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="C71" s="1">
         <v>70</v>
@@ -25798,7 +25798,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C72" s="1">
         <v>71</v>
@@ -25822,7 +25822,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="C73" s="1">
         <v>72</v>
@@ -25848,7 +25848,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C74" s="1">
         <v>73</v>
@@ -25874,7 +25874,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C75" s="1">
         <v>74</v>
@@ -25900,7 +25900,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C76" s="1">
         <v>75</v>
@@ -25924,7 +25924,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C77" s="1">
         <v>76</v>
@@ -25948,7 +25948,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C78" s="1">
         <v>77</v>
@@ -25972,7 +25972,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C79" s="1">
         <v>78</v>
@@ -25996,7 +25996,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C80" s="1">
         <v>79</v>
@@ -26020,7 +26020,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C81" s="1">
         <v>80</v>
@@ -26044,7 +26044,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C82" s="1">
         <v>81</v>
@@ -26068,7 +26068,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C83" s="1">
         <v>82</v>
@@ -26092,7 +26092,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C84" s="1">
         <v>83</v>
@@ -26116,7 +26116,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C85" s="1">
         <v>84</v>
@@ -26140,7 +26140,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C86" s="1">
         <v>85</v>
@@ -26164,7 +26164,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C87" s="1">
         <v>86</v>
@@ -26190,7 +26190,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C88" s="1">
         <v>87</v>
@@ -26216,7 +26216,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C89" s="1">
         <v>88</v>
@@ -26242,7 +26242,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C90" s="1">
         <v>89</v>
@@ -26266,7 +26266,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C91" s="1">
         <v>90</v>
@@ -26290,7 +26290,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C92" s="1">
         <v>91</v>
@@ -26316,7 +26316,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C93" s="1">
         <v>92</v>
@@ -26342,7 +26342,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C94" s="1">
         <v>93</v>
@@ -26366,7 +26366,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C95" s="1">
         <v>94</v>
@@ -26390,7 +26390,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C96" s="1">
         <v>95</v>
@@ -26414,7 +26414,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C97" s="1">
         <v>96</v>
@@ -26438,7 +26438,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C98" s="1">
         <v>97</v>
@@ -26462,7 +26462,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C99" s="1">
         <v>98</v>
@@ -26488,7 +26488,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C100" s="1">
         <v>99</v>
@@ -26514,7 +26514,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C101" s="1">
         <v>100</v>
@@ -26540,7 +26540,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C102" s="1">
         <v>101</v>
@@ -26566,7 +26566,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C103" s="1">
         <v>102</v>
@@ -26590,7 +26590,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C104" s="1">
         <v>103</v>
@@ -26614,7 +26614,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C105" s="1">
         <v>104</v>
@@ -26638,7 +26638,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C106" s="1">
         <v>105</v>
@@ -26662,7 +26662,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C107" s="1">
         <v>106</v>
@@ -26686,7 +26686,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C108" s="1">
         <v>107</v>
@@ -26712,7 +26712,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C109" s="1">
         <v>108</v>
@@ -26738,7 +26738,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C110" s="1">
         <v>109</v>
@@ -26764,7 +26764,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C111" s="1">
         <v>110</v>
@@ -26788,7 +26788,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C112" s="1">
         <v>111</v>
@@ -26812,7 +26812,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C113" s="1">
         <v>112</v>
@@ -26836,7 +26836,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C114" s="1">
         <v>113</v>
@@ -26862,7 +26862,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C115" s="1">
         <v>114</v>
@@ -26886,7 +26886,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C116" s="1">
         <v>115</v>
@@ -26910,7 +26910,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C117" s="1">
         <v>116</v>
@@ -26934,7 +26934,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C118" s="1">
         <v>117</v>
@@ -26958,7 +26958,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C119" s="1">
         <v>118</v>
@@ -26982,7 +26982,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C120" s="1">
         <v>119</v>
@@ -27006,7 +27006,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C121" s="1">
         <v>120</v>
@@ -27030,7 +27030,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C122" s="1">
         <v>121</v>
@@ -27927,7 +27927,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -27950,7 +27950,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -27973,7 +27973,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -27996,7 +27996,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -28019,7 +28019,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -28042,7 +28042,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -28065,7 +28065,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -28111,7 +28111,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -28134,7 +28134,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -28203,7 +28203,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -28226,7 +28226,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -28939,7 +28939,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -28962,7 +28962,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -28985,7 +28985,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -29008,7 +29008,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -29031,7 +29031,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -29100,7 +29100,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -29123,7 +29123,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -29146,7 +29146,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -29169,7 +29169,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -29192,7 +29192,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -29215,7 +29215,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -29238,7 +29238,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -29284,7 +29284,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -29307,7 +29307,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -29376,7 +29376,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -29399,7 +29399,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -29560,7 +29560,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -29583,7 +29583,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -29606,7 +29606,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -29629,7 +29629,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -29652,7 +29652,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -29698,7 +29698,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -29721,7 +29721,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="26" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -29744,7 +29744,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="26" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -29767,7 +29767,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -29836,7 +29836,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -29859,7 +29859,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -29882,7 +29882,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -29905,7 +29905,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -30112,7 +30112,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -30181,7 +30181,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -30204,7 +30204,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -30250,7 +30250,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -30273,7 +30273,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -30296,7 +30296,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -30319,7 +30319,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -30342,7 +30342,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -30365,7 +30365,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -30411,7 +30411,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -30434,7 +30434,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -30480,7 +30480,7 @@
         <v>1</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -30503,7 +30503,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -30526,7 +30526,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -30549,7 +30549,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -31997,7 +31997,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>1734</v>
@@ -32023,7 +32023,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>1735</v>
@@ -32443,10 +32443,10 @@
         <v>1630</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>1540</v>
@@ -32481,10 +32481,10 @@
         <v>1631</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>1541</v>
@@ -32671,10 +32671,10 @@
         <v>1636</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>1545</v>
@@ -32709,10 +32709,10 @@
         <v>1637</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>1546</v>
@@ -32747,10 +32747,10 @@
         <v>1638</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>1545</v>
@@ -32785,10 +32785,10 @@
         <v>1639</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>1545</v>
@@ -32823,10 +32823,10 @@
         <v>1640</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>1545</v>
@@ -32861,10 +32861,10 @@
         <v>1641</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>1547</v>
@@ -32899,10 +32899,10 @@
         <v>1642</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>1545</v>
@@ -32937,10 +32937,10 @@
         <v>1643</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>1545</v>
@@ -32975,10 +32975,10 @@
         <v>1644</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>1545</v>
@@ -33013,10 +33013,10 @@
         <v>1645</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>1545</v>
@@ -33051,10 +33051,10 @@
         <v>1646</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>1545</v>
@@ -33089,10 +33089,10 @@
         <v>1647</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I20" s="24" t="s">
         <v>1545</v>
@@ -33302,7 +33302,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>1182</v>
@@ -33314,13 +33314,13 @@
         <v>1304</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>1553</v>
@@ -33340,7 +33340,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>1183</v>
@@ -33352,13 +33352,13 @@
         <v>1304</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>1554</v>
@@ -33378,7 +33378,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>1184</v>
@@ -33390,13 +33390,13 @@
         <v>1304</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>1553</v>
@@ -33416,7 +33416,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>1185</v>
@@ -33428,13 +33428,13 @@
         <v>1304</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>1555</v>
@@ -33454,7 +33454,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>1186</v>
@@ -33466,13 +33466,13 @@
         <v>1304</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>1553</v>
@@ -33492,7 +33492,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>1187</v>
@@ -33504,13 +33504,13 @@
         <v>1304</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>1553</v>
@@ -33530,7 +33530,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>1188</v>
@@ -33542,13 +33542,13 @@
         <v>1304</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>1553</v>
@@ -33606,7 +33606,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>1190</v>
@@ -33618,13 +33618,13 @@
         <v>1304</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>1556</v>
@@ -33644,7 +33644,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>1191</v>
@@ -33656,13 +33656,13 @@
         <v>1304</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="I35" s="29" t="s">
         <v>1556</v>
@@ -33758,7 +33758,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>1194</v>
@@ -33770,13 +33770,13 @@
         <v>1304</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>1558</v>
@@ -33796,7 +33796,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>1195</v>
@@ -33808,13 +33808,13 @@
         <v>1304</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="I39" s="29" t="s">
         <v>1557</v>
@@ -34974,7 +34974,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>1225</v>
@@ -34986,13 +34986,13 @@
         <v>1304</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="I70" s="28" t="s">
         <v>1581</v>
@@ -35012,7 +35012,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>1226</v>
@@ -35024,13 +35024,13 @@
         <v>1304</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="I71" s="28" t="s">
         <v>1581</v>
@@ -35050,7 +35050,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>1227</v>
@@ -35062,13 +35062,13 @@
         <v>1304</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="I72" s="28" t="s">
         <v>1581</v>
@@ -35088,7 +35088,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>1228</v>
@@ -35100,13 +35100,13 @@
         <v>1304</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="I73" s="28" t="s">
         <v>1582</v>
@@ -35126,7 +35126,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>1228</v>
@@ -35138,13 +35138,13 @@
         <v>1304</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="I74" s="28" t="s">
         <v>1583</v>
@@ -35240,7 +35240,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>1231</v>
@@ -35252,13 +35252,13 @@
         <v>1304</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I77" s="28" t="s">
         <v>1553</v>
@@ -35278,7 +35278,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>1232</v>
@@ -35290,13 +35290,13 @@
         <v>1304</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>1553</v>
@@ -35316,7 +35316,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>1233</v>
@@ -35328,13 +35328,13 @@
         <v>1304</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>1554</v>
@@ -35354,7 +35354,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>1234</v>
@@ -35366,13 +35366,13 @@
         <v>1304</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>1553</v>
@@ -35392,7 +35392,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>1235</v>
@@ -35404,13 +35404,13 @@
         <v>1304</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>1553</v>
@@ -35430,7 +35430,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>1236</v>
@@ -35442,13 +35442,13 @@
         <v>1304</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="I82" s="28" t="s">
         <v>1553</v>
@@ -35468,7 +35468,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>1237</v>
@@ -35480,13 +35480,13 @@
         <v>1304</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="I83" s="28" t="s">
         <v>1553</v>
@@ -35544,7 +35544,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>1239</v>
@@ -35556,13 +35556,13 @@
         <v>1304</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="I85" s="28" t="s">
         <v>1585</v>
@@ -35582,7 +35582,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>1240</v>
@@ -35594,13 +35594,13 @@
         <v>1304</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="I86" s="28" t="s">
         <v>1556</v>
@@ -35696,7 +35696,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C89" s="20" t="s">
         <v>1243</v>
@@ -35708,13 +35708,13 @@
         <v>1304</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="I89" s="28" t="s">
         <v>1557</v>
@@ -35734,7 +35734,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>1244</v>
@@ -35746,13 +35746,13 @@
         <v>1304</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I90" s="28" t="s">
         <v>1557</v>
@@ -36000,7 +36000,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C97" s="20" t="s">
         <v>1251</v>
@@ -36012,13 +36012,13 @@
         <v>1304</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="I97" s="28" t="s">
         <v>1553</v>
@@ -36038,7 +36038,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C98" s="20" t="s">
         <v>1252</v>
@@ -36050,13 +36050,13 @@
         <v>1304</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I98" s="28" t="s">
         <v>1553</v>
@@ -36076,7 +36076,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C99" s="20" t="s">
         <v>1253</v>
@@ -36088,13 +36088,13 @@
         <v>1304</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="I99" s="28" t="s">
         <v>1553</v>
@@ -36114,7 +36114,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>1254</v>
@@ -36126,13 +36126,13 @@
         <v>1304</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="H100" s="24" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="I100" s="28" t="s">
         <v>1553</v>
@@ -36152,7 +36152,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C101" s="20" t="s">
         <v>1255</v>
@@ -36164,13 +36164,13 @@
         <v>1304</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="I101" s="28" t="s">
         <v>1553</v>
@@ -36228,7 +36228,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>1257</v>
@@ -36240,13 +36240,13 @@
         <v>1304</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="I103" s="28" t="s">
         <v>1591</v>
@@ -36266,7 +36266,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>1258</v>
@@ -36278,13 +36278,13 @@
         <v>1304</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="I104" s="28" t="s">
         <v>1592</v>
@@ -36304,7 +36304,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>1259</v>
@@ -36316,13 +36316,13 @@
         <v>1304</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="I105" s="28" t="s">
         <v>1593</v>
@@ -36342,7 +36342,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>1260</v>
@@ -36354,13 +36354,13 @@
         <v>1304</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="I106" s="28" t="s">
         <v>1594</v>
@@ -36456,7 +36456,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>1263</v>
@@ -36468,13 +36468,13 @@
         <v>1304</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G109" s="24" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H109" s="24" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="I109" s="28" t="s">
         <v>1594</v>
@@ -36494,7 +36494,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>1264</v>
@@ -36506,13 +36506,13 @@
         <v>1304</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H110" s="24" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="I110" s="28" t="s">
         <v>1595</v>
@@ -36532,7 +36532,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>1265</v>
@@ -36544,13 +36544,13 @@
         <v>1304</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G111" s="24" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="H111" s="24" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="I111" s="28" t="s">
         <v>1593</v>
@@ -36570,7 +36570,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>1266</v>
@@ -36582,13 +36582,13 @@
         <v>1304</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G112" s="24" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H112" s="24" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="I112" s="28" t="s">
         <v>1596</v>
@@ -36912,7 +36912,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>1275</v>
@@ -36924,13 +36924,13 @@
         <v>1304</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G121" s="24" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="H121" s="24" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I121" s="25" t="s">
         <v>1603</v>
@@ -36950,7 +36950,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>1276</v>
@@ -36962,13 +36962,13 @@
         <v>1304</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G122" s="24" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H122" s="24" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="I122" s="25" t="s">
         <v>1604</v>
@@ -37026,7 +37026,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>1278</v>
@@ -37038,13 +37038,13 @@
         <v>1304</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G124" s="24" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="H124" s="24" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="I124" s="25" t="s">
         <v>1605</v>
@@ -37064,7 +37064,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>1279</v>
@@ -37076,13 +37076,13 @@
         <v>1304</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G125" s="24" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="I125" s="25" t="s">
         <v>1605</v>
@@ -37140,7 +37140,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>1281</v>
@@ -37152,13 +37152,13 @@
         <v>1304</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G127" s="24" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="H127" s="25" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="I127" s="25" t="s">
         <v>1606</v>
@@ -37178,7 +37178,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>1282</v>
@@ -37190,13 +37190,13 @@
         <v>1304</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G128" s="24" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="I128" s="25" t="s">
         <v>1607</v>
@@ -37216,7 +37216,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>1283</v>
@@ -37228,13 +37228,13 @@
         <v>1304</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G129" s="24" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H129" s="25" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="I129" s="25" t="s">
         <v>1608</v>
@@ -37254,7 +37254,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>1284</v>
@@ -37266,13 +37266,13 @@
         <v>1304</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G130" s="24" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H130" s="25" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="I130" s="25" t="s">
         <v>1609</v>
@@ -37292,7 +37292,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>1285</v>
@@ -37304,13 +37304,13 @@
         <v>1304</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G131" s="24" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="H131" s="24" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I131" s="25" t="s">
         <v>1610</v>
@@ -37330,7 +37330,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>1286</v>
@@ -37342,13 +37342,13 @@
         <v>1304</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G132" s="24" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="H132" s="24" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I132" s="25" t="s">
         <v>1611</v>
@@ -37406,7 +37406,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>1288</v>
@@ -37418,13 +37418,13 @@
         <v>1304</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G134" s="24" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H134" s="24" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="I134" s="25" t="s">
         <v>1612</v>
@@ -37444,7 +37444,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>1289</v>
@@ -37456,13 +37456,13 @@
         <v>1304</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G135" s="24" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="H135" s="24" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I135" s="25" t="s">
         <v>1612</v>
@@ -37520,7 +37520,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>1291</v>
@@ -37532,13 +37532,13 @@
         <v>1304</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G137" s="24" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H137" s="25" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I137" s="25" t="s">
         <v>1613</v>
@@ -37558,7 +37558,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>1292</v>
@@ -37570,13 +37570,13 @@
         <v>1304</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G138" s="24" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H138" s="25" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="I138" s="25" t="s">
         <v>1614</v>
@@ -37596,7 +37596,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>1293</v>
@@ -37608,13 +37608,13 @@
         <v>1304</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G139" s="24" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H139" s="25" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="I139" s="25" t="s">
         <v>1615</v>
@@ -37634,7 +37634,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>1294</v>
@@ -37646,13 +37646,13 @@
         <v>1304</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G140" s="24" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H140" s="25" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="I140" s="25" t="s">
         <v>1616</v>
@@ -39278,7 +39278,7 @@
         <v>1623</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>1622</v>
@@ -39316,7 +39316,7 @@
         <v>1702</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>1699</v>
@@ -39331,13 +39331,13 @@
         <v>1721</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="57">
@@ -39354,7 +39354,7 @@
         <v>1714</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>1701</v>
@@ -39369,13 +39369,13 @@
         <v>1721</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="K4" s="32" t="s">
         <v>1722</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
   </sheetData>
@@ -39398,7 +39398,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -39452,7 +39452,7 @@
         <v>951</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>954</v>
@@ -39461,7 +39461,7 @@
         <v>955</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>952</v>
@@ -39481,16 +39481,16 @@
         <v>1699</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>2100</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1700</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2101</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>952</v>
@@ -39516,7 +39516,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -39544,10 +39544,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2056</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2057</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -39572,10 +39572,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2058</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2059</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -39586,10 +39586,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2060</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2061</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -39600,10 +39600,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2062</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2063</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -39614,10 +39614,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>2064</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2065</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -39628,10 +39628,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>2066</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2067</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -39642,10 +39642,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>2068</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2069</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -39656,10 +39656,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>2070</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2071</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -39670,10 +39670,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>2072</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2073</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -39684,10 +39684,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>2074</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2075</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -39698,10 +39698,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>2076</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2077</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -39718,7 +39718,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -39754,10 +39754,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>2078</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2079</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -39768,10 +39768,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>2080</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2081</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -39782,10 +39782,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>2082</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2083</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -39819,7 +39819,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -39830,7 +39830,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1745</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -39844,7 +39844,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -39852,10 +39852,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>2084</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>2085</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -39866,10 +39866,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>2086</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2087</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -39880,10 +39880,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>2088</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2089</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -39894,10 +39894,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>2090</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2091</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -39908,10 +39908,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>2092</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2093</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -39922,10 +39922,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>2094</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>2095</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -39950,10 +39950,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>2096</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>2097</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>949</v>
@@ -39964,10 +39964,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>2098</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>2099</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>950</v>

--- a/file/template1q1.xlsx
+++ b/file/template1q1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Can信号(CanAction)" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="2108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3616" uniqueCount="2108">
   <si>
     <t>Id
 序号</t>
@@ -32334,8 +32334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="14.25"/>
@@ -39207,7 +39207,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -39515,8 +39515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/file/template1q1.xlsx
+++ b/file/template1q1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Can信号(CanAction)" sheetId="2" r:id="rId1"/>
@@ -17,16 +17,17 @@
     <sheet name="截图操作(ScreenShotAction)" sheetId="6" r:id="rId3"/>
     <sheet name="CAN信号对比(CanCompare)" sheetId="9" r:id="rId4"/>
     <sheet name="图片对比(ImageCompare)" sheetId="11" r:id="rId5"/>
-    <sheet name="测试用例(TestCase)" sheetId="14" r:id="rId6"/>
-    <sheet name="测试用例前置条件(TestCaseSetUp)" sheetId="15" r:id="rId7"/>
-    <sheet name="配置(Configure)" sheetId="16" r:id="rId8"/>
+    <sheet name="公共函数(Common)" sheetId="17" r:id="rId6"/>
+    <sheet name="测试用例(TestCase)" sheetId="14" r:id="rId7"/>
+    <sheet name="测试用例前置条件(TestCaseSetUp)" sheetId="15" r:id="rId8"/>
+    <sheet name="配置(Configure)" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3616" uniqueCount="2108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="2119">
   <si>
     <t>Id
 序号</t>
@@ -5925,9 +5926,6 @@
   <si>
     <t>1.后风窗强制除霜开关关闭</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>canaction=REAR_WINDOW_HEATING_STATUS_OFF</t>
   </si>
   <si>
     <t>1.空调屏收到后窗加热active信号
@@ -7414,6 +7412,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FAW_E115_FCP_CANMatrix_V1.6.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAW_E115_FCP_CANMatrix_V1.6.dbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CanAction=VehicleSpeed_0km
 SLEEP=1
 YIELD
@@ -7421,23 +7439,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FAW_E115_FCP_CANMatrix_V1.6.json</t>
+    <t>CommonType
+模块类型</t>
+  </si>
+  <si>
+    <t>Params
+函数参数</t>
+  </si>
+  <si>
+    <t>暂停信号发送</t>
+  </si>
+  <si>
+    <t>停发消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>半自动</t>
+    <t>停发所有消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全自动</t>
+    <t>恢复信号发送</t>
+  </si>
+  <si>
+    <t>message_id=0x152</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COM24</t>
+    <t>恢复发消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FAW_E115_FCP_CANMatrix_V1.6.dbc</t>
+    <t>stop_esp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resume_esp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canaction=REAR_WINDOW_HEATING_STATUS_OFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24082,7 +24126,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>891</v>
@@ -24108,7 +24152,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>892</v>
@@ -24134,7 +24178,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>893</v>
@@ -24158,7 +24202,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>894</v>
@@ -24184,7 +24228,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>895</v>
@@ -24210,7 +24254,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>896</v>
@@ -24236,7 +24280,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>897</v>
@@ -24262,7 +24306,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>898</v>
@@ -24288,7 +24332,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>899</v>
@@ -24314,7 +24358,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>900</v>
@@ -24340,7 +24384,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>901</v>
@@ -24366,7 +24410,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>902</v>
@@ -24390,7 +24434,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>903</v>
@@ -24414,7 +24458,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>904</v>
@@ -24438,7 +24482,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>905</v>
@@ -24462,7 +24506,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>906</v>
@@ -24486,7 +24530,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>907</v>
@@ -24510,7 +24554,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>908</v>
@@ -24534,7 +24578,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>909</v>
@@ -24558,7 +24602,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>910</v>
@@ -24582,7 +24626,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>911</v>
@@ -24606,7 +24650,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>912</v>
@@ -24632,7 +24676,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>913</v>
@@ -24658,7 +24702,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>914</v>
@@ -24682,7 +24726,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>915</v>
@@ -24706,7 +24750,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>916</v>
@@ -24730,7 +24774,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>917</v>
@@ -24754,7 +24798,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>918</v>
@@ -24778,7 +24822,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>919</v>
@@ -24802,7 +24846,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>920</v>
@@ -24826,7 +24870,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>921</v>
@@ -24850,7 +24894,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>922</v>
@@ -24874,7 +24918,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>923</v>
@@ -24898,7 +24942,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>924</v>
@@ -24922,7 +24966,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>925</v>
@@ -24946,7 +24990,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>926</v>
@@ -24972,7 +25016,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>927</v>
@@ -24996,7 +25040,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>928</v>
@@ -25020,7 +25064,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>929</v>
@@ -25044,7 +25088,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>930</v>
@@ -25068,7 +25112,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>931</v>
@@ -25092,7 +25136,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>932</v>
@@ -25116,7 +25160,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>933</v>
@@ -25140,7 +25184,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>934</v>
@@ -25164,7 +25208,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>935</v>
@@ -25188,7 +25232,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>936</v>
@@ -25212,7 +25256,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>937</v>
@@ -25236,7 +25280,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>938</v>
@@ -25260,7 +25304,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>939</v>
@@ -25284,7 +25328,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>940</v>
@@ -25308,7 +25352,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>941</v>
@@ -25332,7 +25376,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>942</v>
@@ -25356,7 +25400,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>943</v>
@@ -25380,7 +25424,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>944</v>
@@ -25404,7 +25448,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>945</v>
@@ -25428,7 +25472,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>946</v>
@@ -25452,7 +25496,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>947</v>
@@ -25476,7 +25520,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>948</v>
@@ -25500,7 +25544,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C60" s="1">
         <v>59</v>
@@ -25526,7 +25570,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C61" s="1">
         <v>60</v>
@@ -25550,7 +25594,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C62" s="1">
         <v>61</v>
@@ -25574,7 +25618,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C63" s="1">
         <v>62</v>
@@ -25598,7 +25642,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C64" s="1">
         <v>63</v>
@@ -25622,7 +25666,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C65" s="1">
         <v>64</v>
@@ -25646,7 +25690,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C66" s="1">
         <v>65</v>
@@ -25672,7 +25716,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -25698,7 +25742,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C68" s="1">
         <v>67</v>
@@ -25724,7 +25768,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C69" s="1">
         <v>68</v>
@@ -25750,7 +25794,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C70" s="1">
         <v>69</v>
@@ -25774,7 +25818,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C71" s="1">
         <v>70</v>
@@ -25798,7 +25842,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="C72" s="1">
         <v>71</v>
@@ -25822,7 +25866,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C73" s="1">
         <v>72</v>
@@ -25848,7 +25892,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="C74" s="1">
         <v>73</v>
@@ -25874,7 +25918,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C75" s="1">
         <v>74</v>
@@ -25900,7 +25944,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C76" s="1">
         <v>75</v>
@@ -25924,7 +25968,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C77" s="1">
         <v>76</v>
@@ -25948,7 +25992,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C78" s="1">
         <v>77</v>
@@ -25972,7 +26016,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C79" s="1">
         <v>78</v>
@@ -25996,7 +26040,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C80" s="1">
         <v>79</v>
@@ -26020,7 +26064,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C81" s="1">
         <v>80</v>
@@ -26044,7 +26088,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C82" s="1">
         <v>81</v>
@@ -26068,7 +26112,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C83" s="1">
         <v>82</v>
@@ -26092,7 +26136,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C84" s="1">
         <v>83</v>
@@ -26116,7 +26160,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C85" s="1">
         <v>84</v>
@@ -26140,7 +26184,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C86" s="1">
         <v>85</v>
@@ -26164,7 +26208,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C87" s="1">
         <v>86</v>
@@ -26190,7 +26234,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C88" s="1">
         <v>87</v>
@@ -26216,7 +26260,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C89" s="1">
         <v>88</v>
@@ -26242,7 +26286,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C90" s="1">
         <v>89</v>
@@ -26266,7 +26310,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C91" s="1">
         <v>90</v>
@@ -26290,7 +26334,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C92" s="1">
         <v>91</v>
@@ -26316,7 +26360,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C93" s="1">
         <v>92</v>
@@ -26342,7 +26386,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C94" s="1">
         <v>93</v>
@@ -26366,7 +26410,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C95" s="1">
         <v>94</v>
@@ -26390,7 +26434,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C96" s="1">
         <v>95</v>
@@ -26414,7 +26458,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C97" s="1">
         <v>96</v>
@@ -26438,7 +26482,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C98" s="1">
         <v>97</v>
@@ -26462,7 +26506,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C99" s="1">
         <v>98</v>
@@ -26488,7 +26532,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C100" s="1">
         <v>99</v>
@@ -26514,7 +26558,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C101" s="1">
         <v>100</v>
@@ -26540,7 +26584,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C102" s="1">
         <v>101</v>
@@ -26566,7 +26610,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C103" s="1">
         <v>102</v>
@@ -26590,7 +26634,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C104" s="1">
         <v>103</v>
@@ -26614,7 +26658,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C105" s="1">
         <v>104</v>
@@ -26638,7 +26682,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C106" s="1">
         <v>105</v>
@@ -26662,7 +26706,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C107" s="1">
         <v>106</v>
@@ -26686,7 +26730,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C108" s="1">
         <v>107</v>
@@ -26712,7 +26756,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C109" s="1">
         <v>108</v>
@@ -26738,7 +26782,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C110" s="1">
         <v>109</v>
@@ -26764,7 +26808,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C111" s="1">
         <v>110</v>
@@ -26788,7 +26832,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C112" s="1">
         <v>111</v>
@@ -26812,7 +26856,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C113" s="1">
         <v>112</v>
@@ -26836,7 +26880,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C114" s="1">
         <v>113</v>
@@ -26862,7 +26906,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C115" s="1">
         <v>114</v>
@@ -26886,7 +26930,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C116" s="1">
         <v>115</v>
@@ -26910,7 +26954,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C117" s="1">
         <v>116</v>
@@ -26934,7 +26978,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C118" s="1">
         <v>117</v>
@@ -26958,7 +27002,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C119" s="1">
         <v>118</v>
@@ -26982,7 +27026,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C120" s="1">
         <v>119</v>
@@ -27006,7 +27050,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C121" s="1">
         <v>120</v>
@@ -27030,7 +27074,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C122" s="1">
         <v>121</v>
@@ -27360,7 +27404,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>1453</v>
@@ -27375,7 +27419,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -27398,7 +27442,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -27421,7 +27465,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -27444,7 +27488,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -27467,7 +27511,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -27490,7 +27534,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -27513,7 +27557,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -27536,7 +27580,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -27559,7 +27603,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -27582,7 +27626,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -27605,7 +27649,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -27628,7 +27672,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -27651,7 +27695,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -27674,7 +27718,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -27697,7 +27741,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -27720,7 +27764,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -27743,7 +27787,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -27766,7 +27810,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -27789,7 +27833,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -27812,7 +27856,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -27835,7 +27879,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -27858,7 +27902,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -27927,7 +27971,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -27950,7 +27994,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -27973,7 +28017,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -27996,7 +28040,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -28019,7 +28063,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -28042,7 +28086,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -28065,7 +28109,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -28088,7 +28132,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -28111,7 +28155,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -28134,7 +28178,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -28157,7 +28201,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -28203,7 +28247,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -28226,7 +28270,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -28295,7 +28339,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -28318,7 +28362,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -28341,7 +28385,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -28502,7 +28546,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -28525,7 +28569,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -28548,7 +28592,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -28571,7 +28615,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -28594,7 +28638,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -28617,7 +28661,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -28640,7 +28684,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -28663,7 +28707,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -28686,7 +28730,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -28709,7 +28753,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -28732,7 +28776,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -28755,7 +28799,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -28778,7 +28822,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -28801,7 +28845,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -28824,7 +28868,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -28847,7 +28891,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -28870,7 +28914,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -28893,7 +28937,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -28916,7 +28960,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -28939,7 +28983,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -28962,7 +29006,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -28985,7 +29029,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -29008,7 +29052,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -29031,7 +29075,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -29054,7 +29098,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -29077,7 +29121,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -29100,7 +29144,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -29123,7 +29167,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -29146,7 +29190,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -29169,7 +29213,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -29192,7 +29236,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -29215,7 +29259,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -29238,7 +29282,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -29284,7 +29328,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -29307,7 +29351,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -29376,7 +29420,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -29399,7 +29443,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -29445,7 +29489,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -29468,7 +29512,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -29491,7 +29535,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -29514,7 +29558,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -29537,7 +29581,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -29560,7 +29604,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -29583,7 +29627,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -29606,7 +29650,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -29629,7 +29673,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -29652,7 +29696,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -29698,7 +29742,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -29721,7 +29765,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="26" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -29744,7 +29788,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="26" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -29767,7 +29811,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -29836,7 +29880,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -29859,7 +29903,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -29882,7 +29926,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -29905,7 +29949,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -30020,7 +30064,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -30043,7 +30087,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -30066,7 +30110,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -30089,7 +30133,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -30112,7 +30156,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -30135,7 +30179,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -30158,7 +30202,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -30181,7 +30225,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -30204,7 +30248,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -30250,7 +30294,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -30273,7 +30317,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -30296,7 +30340,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -30319,7 +30363,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -30342,7 +30386,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -30365,7 +30409,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -30411,7 +30455,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -30434,7 +30478,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -30480,7 +30524,7 @@
         <v>1</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -30503,7 +30547,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -30526,7 +30570,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -30549,7 +30593,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -30572,7 +30616,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -30595,7 +30639,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -30618,7 +30662,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -30641,7 +30685,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -30664,7 +30708,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -30687,7 +30731,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -30710,7 +30754,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -30733,7 +30777,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="24" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -30756,7 +30800,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
   </sheetData>
@@ -31997,19 +32041,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>1737</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>1738</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>1739</v>
       </c>
       <c r="G2" s="10">
         <v>1</v>
@@ -32023,19 +32067,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D3" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>1737</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>1738</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G3" s="10">
         <v>1</v>
@@ -32049,19 +32093,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D4" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>1737</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>1738</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G4" s="10">
         <v>1</v>
@@ -32075,19 +32119,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D5" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>1737</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>1738</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
@@ -32101,19 +32145,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D6" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>1737</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>1738</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G6" s="10">
         <v>1</v>
@@ -32127,19 +32171,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D7" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>1737</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>1738</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
@@ -32153,19 +32197,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D8" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>1737</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>1738</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -32179,19 +32223,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>1737</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>1738</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G9" s="10">
         <v>1</v>
@@ -32205,19 +32249,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>1737</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>1738</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G10" s="10">
         <v>1</v>
@@ -32231,19 +32275,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D11" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>1737</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>1738</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G11" s="10">
         <v>1</v>
@@ -32257,19 +32301,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D12" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>1737</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>1738</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
@@ -32281,19 +32325,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G13" s="10">
         <v>1</v>
@@ -32305,19 +32349,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>1736</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>1737</v>
-      </c>
       <c r="E14" s="10" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
@@ -32334,8 +32378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="14.25"/>
@@ -32390,7 +32434,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>1158</v>
@@ -32402,7 +32446,7 @@
         <v>1304</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>956</v>
@@ -32440,13 +32484,13 @@
         <v>1305</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>1540</v>
@@ -32478,13 +32522,13 @@
         <v>1304</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>1541</v>
@@ -32516,7 +32560,7 @@
         <v>1305</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>958</v>
@@ -32554,7 +32598,7 @@
         <v>1305</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>960</v>
@@ -32592,7 +32636,7 @@
         <v>1304</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>961</v>
@@ -32630,7 +32674,7 @@
         <v>1305</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>963</v>
@@ -32668,13 +32712,13 @@
         <v>1304</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>1545</v>
@@ -32706,13 +32750,13 @@
         <v>1304</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>1546</v>
@@ -32744,13 +32788,13 @@
         <v>1304</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>1545</v>
@@ -32782,13 +32826,13 @@
         <v>1304</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>1545</v>
@@ -32820,13 +32864,13 @@
         <v>1304</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>1545</v>
@@ -32858,13 +32902,13 @@
         <v>1304</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>1547</v>
@@ -32896,13 +32940,13 @@
         <v>1304</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>1545</v>
@@ -32934,13 +32978,13 @@
         <v>1304</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>1545</v>
@@ -32972,13 +33016,13 @@
         <v>1304</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>1545</v>
@@ -33010,13 +33054,13 @@
         <v>1304</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>1545</v>
@@ -33048,13 +33092,13 @@
         <v>1304</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>1545</v>
@@ -33086,13 +33130,13 @@
         <v>1305</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="I20" s="24" t="s">
         <v>1545</v>
@@ -33124,7 +33168,7 @@
         <v>1304</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>965</v>
@@ -33162,7 +33206,7 @@
         <v>1304</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>967</v>
@@ -33200,7 +33244,7 @@
         <v>1305</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>968</v>
@@ -33302,7 +33346,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>1182</v>
@@ -33314,13 +33358,13 @@
         <v>1304</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>1553</v>
@@ -33340,7 +33384,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>1183</v>
@@ -33352,13 +33396,13 @@
         <v>1304</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>1554</v>
@@ -33378,7 +33422,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>1184</v>
@@ -33390,13 +33434,13 @@
         <v>1304</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>1553</v>
@@ -33416,7 +33460,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>1185</v>
@@ -33428,13 +33472,13 @@
         <v>1304</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>1555</v>
@@ -33454,7 +33498,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>1186</v>
@@ -33466,13 +33510,13 @@
         <v>1304</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>1553</v>
@@ -33492,7 +33536,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>1187</v>
@@ -33504,13 +33548,13 @@
         <v>1304</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>1553</v>
@@ -33530,7 +33574,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>1188</v>
@@ -33542,13 +33586,13 @@
         <v>1304</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>1553</v>
@@ -33580,7 +33624,7 @@
         <v>1304</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>971</v>
@@ -33606,7 +33650,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>1190</v>
@@ -33618,13 +33662,13 @@
         <v>1304</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>1556</v>
@@ -33644,7 +33688,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>1191</v>
@@ -33656,13 +33700,13 @@
         <v>1304</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="I35" s="29" t="s">
         <v>1556</v>
@@ -33694,7 +33738,7 @@
         <v>1304</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>972</v>
@@ -33758,7 +33802,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>1194</v>
@@ -33770,13 +33814,13 @@
         <v>1304</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>1558</v>
@@ -33796,7 +33840,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>1195</v>
@@ -33808,13 +33852,13 @@
         <v>1304</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="I39" s="29" t="s">
         <v>1557</v>
@@ -33922,7 +33966,7 @@
         <v>1304</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>976</v>
@@ -33960,7 +34004,7 @@
         <v>1304</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>977</v>
@@ -33998,7 +34042,7 @@
         <v>1304</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>978</v>
@@ -34264,7 +34308,7 @@
         <v>1304</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G51" s="24" t="s">
         <v>985</v>
@@ -34302,7 +34346,7 @@
         <v>1305</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>986</v>
@@ -34340,7 +34384,7 @@
         <v>1304</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>987</v>
@@ -34378,7 +34422,7 @@
         <v>1305</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>988</v>
@@ -34416,7 +34460,7 @@
         <v>1304</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="G55" s="24" t="s">
         <v>989</v>
@@ -34454,7 +34498,7 @@
         <v>1305</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G56" s="24" t="s">
         <v>990</v>
@@ -34492,7 +34536,7 @@
         <v>1305</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G57" s="24" t="s">
         <v>991</v>
@@ -34530,7 +34574,7 @@
         <v>1304</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G58" s="24" t="s">
         <v>992</v>
@@ -34568,7 +34612,7 @@
         <v>1304</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G59" s="24" t="s">
         <v>993</v>
@@ -34606,7 +34650,7 @@
         <v>1304</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G60" s="24" t="s">
         <v>994</v>
@@ -34644,7 +34688,7 @@
         <v>1304</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="G61" s="24" t="s">
         <v>995</v>
@@ -34682,7 +34726,7 @@
         <v>1304</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="G62" s="24" t="s">
         <v>996</v>
@@ -34720,7 +34764,7 @@
         <v>1305</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G63" s="24" t="s">
         <v>997</v>
@@ -34758,7 +34802,7 @@
         <v>1305</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="G64" s="24" t="s">
         <v>998</v>
@@ -34796,7 +34840,7 @@
         <v>1304</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="G65" s="24" t="s">
         <v>999</v>
@@ -34834,7 +34878,7 @@
         <v>1304</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="G66" s="24" t="s">
         <v>1000</v>
@@ -34872,7 +34916,7 @@
         <v>1305</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G67" s="24" t="s">
         <v>1001</v>
@@ -34910,7 +34954,7 @@
         <v>1304</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G68" s="24" t="s">
         <v>1002</v>
@@ -34948,7 +34992,7 @@
         <v>1305</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>1003</v>
@@ -34974,7 +35018,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>1225</v>
@@ -34986,13 +35030,13 @@
         <v>1304</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="I70" s="28" t="s">
         <v>1581</v>
@@ -35012,7 +35056,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>1226</v>
@@ -35024,13 +35068,13 @@
         <v>1304</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="I71" s="28" t="s">
         <v>1581</v>
@@ -35050,7 +35094,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>1227</v>
@@ -35062,13 +35106,13 @@
         <v>1304</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="I72" s="28" t="s">
         <v>1581</v>
@@ -35088,7 +35132,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>1228</v>
@@ -35100,13 +35144,13 @@
         <v>1304</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="I73" s="28" t="s">
         <v>1582</v>
@@ -35126,7 +35170,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>1228</v>
@@ -35138,13 +35182,13 @@
         <v>1304</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="I74" s="28" t="s">
         <v>1583</v>
@@ -35176,7 +35220,7 @@
         <v>1304</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G75" s="24" t="s">
         <v>1004</v>
@@ -35214,7 +35258,7 @@
         <v>1304</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="G76" s="24" t="s">
         <v>1005</v>
@@ -35240,7 +35284,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>1231</v>
@@ -35252,13 +35296,13 @@
         <v>1304</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="I77" s="28" t="s">
         <v>1553</v>
@@ -35278,7 +35322,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>1232</v>
@@ -35290,13 +35334,13 @@
         <v>1304</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>1553</v>
@@ -35316,7 +35360,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>1233</v>
@@ -35328,13 +35372,13 @@
         <v>1304</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>1554</v>
@@ -35354,7 +35398,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>1234</v>
@@ -35366,13 +35410,13 @@
         <v>1304</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>1553</v>
@@ -35392,7 +35436,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>1235</v>
@@ -35404,13 +35448,13 @@
         <v>1304</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>1553</v>
@@ -35430,7 +35474,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>1236</v>
@@ -35442,13 +35486,13 @@
         <v>1304</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="I82" s="28" t="s">
         <v>1553</v>
@@ -35468,7 +35512,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>1237</v>
@@ -35480,13 +35524,13 @@
         <v>1304</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="I83" s="28" t="s">
         <v>1553</v>
@@ -35544,7 +35588,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>1239</v>
@@ -35556,13 +35600,13 @@
         <v>1304</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="I85" s="28" t="s">
         <v>1585</v>
@@ -35582,7 +35626,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>1240</v>
@@ -35594,13 +35638,13 @@
         <v>1304</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="I86" s="28" t="s">
         <v>1556</v>
@@ -35696,7 +35740,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C89" s="20" t="s">
         <v>1243</v>
@@ -35708,13 +35752,13 @@
         <v>1304</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="I89" s="28" t="s">
         <v>1557</v>
@@ -35734,7 +35778,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>1244</v>
@@ -35746,13 +35790,13 @@
         <v>1304</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="I90" s="28" t="s">
         <v>1557</v>
@@ -35822,7 +35866,7 @@
         <v>1304</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="G92" s="24" t="s">
         <v>1010</v>
@@ -35860,7 +35904,7 @@
         <v>1304</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="G93" s="24" t="s">
         <v>1011</v>
@@ -35898,7 +35942,7 @@
         <v>1304</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G94" s="24" t="s">
         <v>1012</v>
@@ -35936,7 +35980,7 @@
         <v>1304</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="G95" s="24" t="s">
         <v>1013</v>
@@ -35974,7 +36018,7 @@
         <v>1305</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="G96" s="24" t="s">
         <v>1014</v>
@@ -36000,7 +36044,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C97" s="20" t="s">
         <v>1251</v>
@@ -36012,13 +36056,13 @@
         <v>1304</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I97" s="28" t="s">
         <v>1553</v>
@@ -36038,7 +36082,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C98" s="20" t="s">
         <v>1252</v>
@@ -36050,13 +36094,13 @@
         <v>1304</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="I98" s="28" t="s">
         <v>1553</v>
@@ -36076,7 +36120,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C99" s="20" t="s">
         <v>1253</v>
@@ -36088,13 +36132,13 @@
         <v>1304</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I99" s="28" t="s">
         <v>1553</v>
@@ -36114,7 +36158,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>1254</v>
@@ -36126,13 +36170,13 @@
         <v>1304</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="H100" s="24" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="I100" s="28" t="s">
         <v>1553</v>
@@ -36152,7 +36196,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C101" s="20" t="s">
         <v>1255</v>
@@ -36164,13 +36208,13 @@
         <v>1304</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="I101" s="28" t="s">
         <v>1553</v>
@@ -36228,7 +36272,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>1257</v>
@@ -36240,13 +36284,13 @@
         <v>1304</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="I103" s="28" t="s">
         <v>1591</v>
@@ -36266,7 +36310,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>1258</v>
@@ -36278,13 +36322,13 @@
         <v>1304</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I104" s="28" t="s">
         <v>1592</v>
@@ -36304,7 +36348,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>1259</v>
@@ -36316,13 +36360,13 @@
         <v>1304</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="I105" s="28" t="s">
         <v>1593</v>
@@ -36342,7 +36386,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>1260</v>
@@ -36354,13 +36398,13 @@
         <v>1304</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="I106" s="28" t="s">
         <v>1594</v>
@@ -36456,7 +36500,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>1263</v>
@@ -36468,13 +36512,13 @@
         <v>1304</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G109" s="24" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H109" s="24" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="I109" s="28" t="s">
         <v>1594</v>
@@ -36494,7 +36538,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>1264</v>
@@ -36506,13 +36550,13 @@
         <v>1304</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H110" s="24" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="I110" s="28" t="s">
         <v>1595</v>
@@ -36532,7 +36576,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>1265</v>
@@ -36544,13 +36588,13 @@
         <v>1304</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G111" s="24" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="H111" s="24" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="I111" s="28" t="s">
         <v>1593</v>
@@ -36570,7 +36614,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>1266</v>
@@ -36582,13 +36626,13 @@
         <v>1304</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G112" s="24" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H112" s="24" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="I112" s="28" t="s">
         <v>1596</v>
@@ -36772,7 +36816,7 @@
         <v>1304</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G117" s="24" t="s">
         <v>1022</v>
@@ -36810,7 +36854,7 @@
         <v>1304</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="G118" s="24" t="s">
         <v>1023</v>
@@ -36848,7 +36892,7 @@
         <v>1304</v>
       </c>
       <c r="F119" s="20" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G119" s="24" t="s">
         <v>1024</v>
@@ -36886,7 +36930,7 @@
         <v>1304</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G120" s="24" t="s">
         <v>1025</v>
@@ -36912,7 +36956,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>1275</v>
@@ -36924,13 +36968,13 @@
         <v>1304</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G121" s="24" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="H121" s="24" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="I121" s="25" t="s">
         <v>1603</v>
@@ -36950,7 +36994,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>1276</v>
@@ -36962,13 +37006,13 @@
         <v>1304</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G122" s="24" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H122" s="24" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="I122" s="25" t="s">
         <v>1604</v>
@@ -37000,7 +37044,7 @@
         <v>1304</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="G123" s="24" t="s">
         <v>1026</v>
@@ -37026,7 +37070,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>1278</v>
@@ -37038,13 +37082,13 @@
         <v>1304</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G124" s="24" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="H124" s="24" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I124" s="25" t="s">
         <v>1605</v>
@@ -37064,7 +37108,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>1279</v>
@@ -37076,13 +37120,13 @@
         <v>1304</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G125" s="24" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="I125" s="25" t="s">
         <v>1605</v>
@@ -37140,7 +37184,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>1281</v>
@@ -37152,13 +37196,13 @@
         <v>1304</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G127" s="24" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H127" s="25" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="I127" s="25" t="s">
         <v>1606</v>
@@ -37178,7 +37222,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>1282</v>
@@ -37190,13 +37234,13 @@
         <v>1304</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G128" s="24" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="I128" s="25" t="s">
         <v>1607</v>
@@ -37216,7 +37260,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>1283</v>
@@ -37228,13 +37272,13 @@
         <v>1304</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G129" s="24" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="H129" s="25" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="I129" s="25" t="s">
         <v>1608</v>
@@ -37254,7 +37298,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>1284</v>
@@ -37266,13 +37310,13 @@
         <v>1304</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G130" s="24" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="H130" s="25" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="I130" s="25" t="s">
         <v>1609</v>
@@ -37292,7 +37336,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>1285</v>
@@ -37304,13 +37348,13 @@
         <v>1304</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G131" s="24" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H131" s="24" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="I131" s="25" t="s">
         <v>1610</v>
@@ -37330,7 +37374,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>1286</v>
@@ -37342,13 +37386,13 @@
         <v>1304</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G132" s="24" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="H132" s="24" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="I132" s="25" t="s">
         <v>1611</v>
@@ -37406,7 +37450,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>1288</v>
@@ -37418,13 +37462,13 @@
         <v>1304</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G134" s="24" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="H134" s="24" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I134" s="25" t="s">
         <v>1612</v>
@@ -37444,7 +37488,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>1289</v>
@@ -37456,13 +37500,13 @@
         <v>1304</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G135" s="24" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="H135" s="24" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I135" s="25" t="s">
         <v>1612</v>
@@ -37520,7 +37564,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>1291</v>
@@ -37532,13 +37576,13 @@
         <v>1304</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G137" s="24" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H137" s="25" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="I137" s="25" t="s">
         <v>1613</v>
@@ -37558,7 +37602,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>1292</v>
@@ -37570,13 +37614,13 @@
         <v>1304</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G138" s="24" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="H138" s="25" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I138" s="25" t="s">
         <v>1614</v>
@@ -37596,7 +37640,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>1293</v>
@@ -37608,13 +37652,13 @@
         <v>1304</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G139" s="24" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H139" s="25" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="I139" s="25" t="s">
         <v>1615</v>
@@ -37634,7 +37678,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>1294</v>
@@ -37646,13 +37690,13 @@
         <v>1304</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G140" s="24" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H140" s="25" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I140" s="25" t="s">
         <v>1616</v>
@@ -37684,7 +37728,7 @@
         <v>1304</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G141" s="24" t="s">
         <v>1030</v>
@@ -37722,7 +37766,7 @@
         <v>1304</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G142" s="24" t="s">
         <v>1032</v>
@@ -37760,7 +37804,7 @@
         <v>1304</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G143" s="24" t="s">
         <v>1033</v>
@@ -37798,7 +37842,7 @@
         <v>1304</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G144" s="24" t="s">
         <v>1034</v>
@@ -37836,7 +37880,7 @@
         <v>1304</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G145" s="24" t="s">
         <v>1035</v>
@@ -37874,7 +37918,7 @@
         <v>1304</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="G146" s="24" t="s">
         <v>1036</v>
@@ -37912,7 +37956,7 @@
         <v>1304</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="G147" s="24" t="s">
         <v>1037</v>
@@ -37950,7 +37994,7 @@
         <v>1304</v>
       </c>
       <c r="F148" s="24" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="G148" s="24" t="s">
         <v>1038</v>
@@ -37988,7 +38032,7 @@
         <v>1304</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G149" s="24" t="s">
         <v>1039</v>
@@ -39204,10 +39248,104 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D4">
+      <formula1>"暂停信号发送,恢复信号发送,滑动查找元素,清空编辑框中的文字,输入文本框中的文字"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -39278,7 +39416,7 @@
         <v>1623</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>1622</v>
@@ -39287,19 +39425,19 @@
         <v>1624</v>
       </c>
       <c r="H2" s="23" t="s">
+        <v>2118</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>1625</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="J2" s="23" t="s">
+        <v>1742</v>
+      </c>
+      <c r="K2" s="32" t="s">
         <v>1626</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>1743</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>1627</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="57">
@@ -39307,37 +39445,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="57">
@@ -39345,37 +39483,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>1720</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="J4" s="23" t="s">
+        <v>2048</v>
+      </c>
+      <c r="K4" s="32" t="s">
         <v>1721</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>2049</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>1722</v>
-      </c>
       <c r="L4" s="12" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
   </sheetData>
@@ -39393,12 +39531,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -39452,7 +39590,7 @@
         <v>951</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>954</v>
@@ -39461,7 +39599,7 @@
         <v>955</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>952</v>
@@ -39475,22 +39613,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>1699</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="F3" s="10" t="s">
         <v>1699</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>2099</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>1700</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2100</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>952</v>
@@ -39511,7 +39649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -39544,10 +39682,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2055</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2056</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -39572,10 +39710,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2057</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2058</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -39586,10 +39724,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2059</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2060</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -39600,10 +39738,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2061</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2062</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -39614,10 +39752,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>2063</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2064</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -39628,10 +39766,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>2065</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2066</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -39642,10 +39780,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>2067</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2068</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -39656,10 +39794,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>2069</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2070</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -39670,10 +39808,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>2071</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2072</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -39684,10 +39822,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>2073</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2074</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -39698,10 +39836,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>2075</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2076</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -39718,7 +39856,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -39746,7 +39884,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -39754,10 +39892,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>2077</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2078</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -39768,10 +39906,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>2079</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2080</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -39782,10 +39920,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>2081</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2082</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -39830,7 +39968,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -39844,7 +39982,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -39852,10 +39990,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>2083</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>2084</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -39866,10 +40004,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>2085</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2086</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -39880,10 +40018,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>2087</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2088</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -39894,10 +40032,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>2089</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2090</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -39908,10 +40046,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>2091</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2092</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -39922,10 +40060,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>2093</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>2094</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -39942,7 +40080,7 @@
         <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -39950,10 +40088,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>2095</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>2096</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>949</v>
@@ -39964,10 +40102,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>2097</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>2098</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>950</v>
